--- a/migforecasting/cities10/5/d2.xlsx
+++ b/migforecasting/cities10/5/d2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\.spyder-py3\ITMO-2\migforecasting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\.spyder-py3\ITMO-2\migforecasting\cities10\5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,9 +20,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="205">
-  <si>
-    <t xml:space="preserve">Ханты-Мансийск </t>
-  </si>
   <si>
     <t>Нефтеюганск</t>
   </si>
@@ -861,6 +858,9 @@
       </rPr>
       <t>8)</t>
     </r>
+  </si>
+  <si>
+    <t>Ханты-Мансийск</t>
   </si>
 </sst>
 </file>
@@ -1257,8 +1257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1297,28 +1297,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1326,28 +1326,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
       <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
       <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
       <c r="I3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
         <v>4</v>
-      </c>
-      <c r="J3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1355,7 +1355,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1363,7 +1363,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C5" s="6">
         <v>80.5</v>
@@ -1396,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="6">
         <v>20.7</v>
@@ -1429,7 +1429,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C7" s="6">
         <v>6.5</v>
@@ -1462,7 +1462,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C8" s="6">
         <v>14.2</v>
@@ -1565,7 +1565,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C14" s="6">
         <v>1977</v>
@@ -1598,7 +1598,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -1615,7 +1615,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C16" s="6">
         <v>38.299999999999997</v>
@@ -1648,7 +1648,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C17" s="6">
         <v>614</v>
@@ -1681,7 +1681,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C18" s="6">
         <v>317</v>
@@ -1714,7 +1714,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1731,7 +1731,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C20" s="6">
         <v>43091.3</v>
@@ -1764,7 +1764,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C21" s="6">
         <v>11474.2</v>
@@ -1797,7 +1797,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C22" s="6">
         <v>18.600000000000001</v>
@@ -1830,7 +1830,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C23" s="6">
         <v>21.1</v>
@@ -1863,7 +1863,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C24" s="6">
         <v>20</v>
@@ -1896,7 +1896,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -1913,7 +1913,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C26" s="6">
         <v>3.2</v>
@@ -1946,7 +1946,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C27" s="6">
         <v>2.6</v>
@@ -1979,7 +1979,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -1996,7 +1996,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C29" s="6">
         <v>1177</v>
@@ -2005,7 +2005,7 @@
         <v>1198</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F29" s="6">
         <v>634</v>
@@ -2029,7 +2029,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C30" s="6">
         <v>146.1</v>
@@ -2038,7 +2038,7 @@
         <v>140.9</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F30" s="6">
         <v>37.4</v>
@@ -2062,7 +2062,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -2079,7 +2079,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C32" s="6">
         <v>2152</v>
@@ -2088,7 +2088,7 @@
         <v>2091</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F32" s="6">
         <v>2102</v>
@@ -2112,7 +2112,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C33" s="6">
         <v>276.2</v>
@@ -2121,7 +2121,7 @@
         <v>245.9</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F33" s="6">
         <v>124</v>
@@ -2145,7 +2145,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C34" s="6">
         <v>7</v>
@@ -2154,7 +2154,7 @@
         <v>7</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F34" s="6">
         <v>4</v>
@@ -2179,7 +2179,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -2193,11 +2193,11 @@
     </row>
     <row r="36" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <f t="shared" ref="A36:A79" si="0">A35+1</f>
+        <f t="shared" ref="A36:A77" si="0">A35+1</f>
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C36" s="6">
         <v>0.9</v>
@@ -2206,7 +2206,7 @@
         <v>0.9</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F36" s="6">
         <v>1.1000000000000001</v>
@@ -2231,7 +2231,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C37" s="6">
         <v>116.9</v>
@@ -2240,7 +2240,7 @@
         <v>110.2</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F37" s="6">
         <v>66.5</v>
@@ -2265,7 +2265,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C38" s="6">
         <v>12</v>
@@ -2274,7 +2274,7 @@
         <v>14</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F38" s="6">
         <v>13</v>
@@ -2299,7 +2299,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -2317,7 +2317,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C40" s="6">
         <v>2.6</v>
@@ -2326,7 +2326,7 @@
         <v>2.8</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F40" s="6">
         <v>3.2</v>
@@ -2351,7 +2351,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C41" s="6">
         <v>327.39999999999998</v>
@@ -2360,7 +2360,7 @@
         <v>331.1</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F41" s="6">
         <v>187.9</v>
@@ -2385,7 +2385,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C42" s="6">
         <v>1823</v>
@@ -2419,7 +2419,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C43" s="6">
         <v>856</v>
@@ -2453,7 +2453,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -2471,31 +2471,31 @@
         <v>43</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C45" s="6">
         <v>26609.200000000001</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E45" s="6">
         <v>9387.7000000000007</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G45" s="6">
         <v>26230.5</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I45" s="6">
         <v>55383.7</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K45" s="5"/>
     </row>
@@ -2505,7 +2505,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C46" s="6">
         <v>7816.3</v>
@@ -2539,7 +2539,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C47" s="6">
         <v>23.5</v>
@@ -2573,7 +2573,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C48" s="6">
         <v>1.1000000000000001</v>
@@ -2607,7 +2607,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -2625,7 +2625,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C50" s="6">
         <v>2975</v>
@@ -2659,31 +2659,31 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -2692,7 +2692,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -2701,31 +2701,31 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
         <v>8</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>9</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>10</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>12</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>13</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>14</v>
       </c>
-      <c r="I53" t="s">
-        <v>15</v>
-      </c>
       <c r="J53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -2734,31 +2734,31 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" t="s">
         <v>16</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>17</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>18</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>19</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>20</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>21</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>22</v>
       </c>
-      <c r="I54" t="s">
-        <v>23</v>
-      </c>
       <c r="J54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -2767,31 +2767,31 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" t="s">
         <v>24</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>25</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>26</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
+        <v>25</v>
+      </c>
+      <c r="G55" t="s">
         <v>27</v>
       </c>
-      <c r="F55" t="s">
-        <v>26</v>
-      </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>28</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>29</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>30</v>
-      </c>
-      <c r="J55" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -2800,7 +2800,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -2809,31 +2809,31 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" t="s">
         <v>33</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>34</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>35</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>36</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>37</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>38</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>39</v>
-      </c>
-      <c r="J57" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -2842,31 +2842,31 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C58" t="s">
+        <v>40</v>
+      </c>
+      <c r="D58" t="s">
         <v>41</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>42</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>43</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>44</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>45</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>46</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>47</v>
-      </c>
-      <c r="J58" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -2875,31 +2875,31 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C59" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59" t="s">
         <v>49</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>50</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>51</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>52</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>53</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>54</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>55</v>
-      </c>
-      <c r="J59" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -2908,31 +2908,31 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -2941,31 +2941,31 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" t="s">
         <v>58</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>59</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>60</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>61</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>62</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>63</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>64</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>65</v>
-      </c>
-      <c r="J61" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -2974,7 +2974,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -2983,31 +2983,31 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" t="s">
         <v>68</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>69</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>70</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>71</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>72</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>73</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>74</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>75</v>
-      </c>
-      <c r="J63" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -3016,31 +3016,31 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" t="s">
         <v>77</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>78</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>79</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>80</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>81</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>82</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>83</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>84</v>
-      </c>
-      <c r="J64" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -3049,31 +3049,31 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" t="s">
         <v>86</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>87</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
+        <v>86</v>
+      </c>
+      <c r="F65" t="s">
+        <v>86</v>
+      </c>
+      <c r="G65" t="s">
         <v>88</v>
       </c>
-      <c r="E65" t="s">
-        <v>87</v>
-      </c>
-      <c r="F65" t="s">
-        <v>87</v>
-      </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>89</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>90</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>91</v>
-      </c>
-      <c r="J65" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -3100,31 +3100,31 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -3133,31 +3133,31 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70" t="s">
         <v>94</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>95</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>96</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>97</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>98</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>99</v>
       </c>
-      <c r="H70" t="s">
+      <c r="I70" t="s">
         <v>100</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>101</v>
-      </c>
-      <c r="J70" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -3166,31 +3166,31 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
+        <v>102</v>
+      </c>
+      <c r="C71" t="s">
         <v>103</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>104</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>105</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>106</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>107</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
+        <v>104</v>
+      </c>
+      <c r="I71" t="s">
         <v>108</v>
       </c>
-      <c r="H71" t="s">
-        <v>105</v>
-      </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>109</v>
-      </c>
-      <c r="J71" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -3199,31 +3199,31 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
+        <v>110</v>
+      </c>
+      <c r="C72" t="s">
         <v>111</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>112</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>113</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>114</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>115</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>116</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>117</v>
       </c>
-      <c r="I72" t="s">
+      <c r="J72" t="s">
         <v>118</v>
-      </c>
-      <c r="J72" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -3232,31 +3232,31 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
+        <v>119</v>
+      </c>
+      <c r="C73" t="s">
         <v>120</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>121</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
+        <v>74</v>
+      </c>
+      <c r="F73" t="s">
         <v>122</v>
       </c>
-      <c r="E73" t="s">
-        <v>75</v>
-      </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
+        <v>74</v>
+      </c>
+      <c r="H73" t="s">
         <v>123</v>
       </c>
-      <c r="G73" t="s">
-        <v>75</v>
-      </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>124</v>
       </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
         <v>125</v>
-      </c>
-      <c r="J73" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -3265,31 +3265,31 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C74" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D74" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E74" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F74" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G74" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H74" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I74" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J74" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -3298,31 +3298,31 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
+        <v>127</v>
+      </c>
+      <c r="C75" t="s">
         <v>128</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>129</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>130</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>131</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>132</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>133</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>134</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
         <v>135</v>
-      </c>
-      <c r="J75" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -3331,31 +3331,31 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
+        <v>136</v>
+      </c>
+      <c r="C76" t="s">
         <v>137</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>138</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>139</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>140</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>141</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>142</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>143</v>
       </c>
-      <c r="I76" t="s">
-        <v>144</v>
-      </c>
       <c r="J76" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -3364,61 +3364,61 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
+        <v>144</v>
+      </c>
+      <c r="C77" t="s">
         <v>145</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>146</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>147</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>148</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>149</v>
       </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>150</v>
       </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
+        <v>150</v>
+      </c>
+      <c r="J77" t="s">
         <v>151</v>
-      </c>
-      <c r="I77" t="s">
-        <v>151</v>
-      </c>
-      <c r="J77" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C78" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D78" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F78" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G78" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H78" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I78" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J78" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
